--- a/results/Daily_Impacts_diff.xlsx
+++ b/results/Daily_Impacts_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soham/Desktop/Capstone/Impact_of_Manhattan_Congestion_Surcharge_on_For-Hire_Vehicles/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD0DBA9E-B292-AE4C-B629-3BBC8953F52A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4669CFA0-5E41-244C-923F-CE5FE07BE709}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="1460" windowWidth="27640" windowHeight="16540" xr2:uid="{A4F7C992-0607-9A46-9407-E50F3906DDE7}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
